--- a/matlab/REU_2022/Topic_3_Soaring/Sim Draft 1/Code of Laws/UnitedLaw.xlsx
+++ b/matlab/REU_2022/Topic_3_Soaring/Sim Draft 1/Code of Laws/UnitedLaw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxlg\Dropbox (ASU)\PC\Documents\GitHub\REU_MatlabSim\REU_MatlabSim\matlab\REU_2022\Topic_3_Soaring\Sim Draft 1\Code of Laws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A3E3F9-CF4F-4829-A845-46C58F9349E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF7EFB7-567C-4924-A69D-DAE646CDCF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7416" yWindow="300" windowWidth="14292" windowHeight="11940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="14292" windowHeight="11940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Control Case" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="138">
   <si>
     <t>dt</t>
   </si>
@@ -419,33 +419,6 @@
   </si>
   <si>
     <t>on</t>
-  </si>
-  <si>
-    <t>Factor Parameters (LR = linear relationship)</t>
-  </si>
-  <si>
-    <t>Relative Ascension</t>
-  </si>
-  <si>
-    <t>[m/s] bounds of relative ascension for LR</t>
-  </si>
-  <si>
-    <t>relativeAscensionBounds</t>
-  </si>
-  <si>
-    <t>[1,4]</t>
-  </si>
-  <si>
-    <t>Height Desire</t>
-  </si>
-  <si>
-    <t>[m] bounds of height for LR</t>
-  </si>
-  <si>
-    <t>heightDesireBounds</t>
-  </si>
-  <si>
-    <t>[1000,2600]</t>
   </si>
   <si>
     <t>sepPower</t>
@@ -812,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF124"/>
+  <dimension ref="A1:AF95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -824,7 +797,7 @@
     <col min="2" max="2" width="28.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -834,14 +807,28 @@
       <c r="C1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -851,8 +838,23 @@
       <c r="C4">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>0.5</v>
+      </c>
+      <c r="H4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -860,10 +862,25 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7200</v>
+      </c>
+      <c r="D5">
+        <v>7200</v>
+      </c>
+      <c r="E5">
+        <v>7200</v>
+      </c>
+      <c r="F5">
+        <v>7200</v>
+      </c>
+      <c r="G5">
+        <v>7200</v>
+      </c>
+      <c r="H5">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -871,10 +888,25 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+      <c r="D6">
+        <v>240</v>
+      </c>
+      <c r="E6">
+        <v>240</v>
+      </c>
+      <c r="F6">
+        <v>240</v>
+      </c>
+      <c r="G6">
+        <v>240</v>
+      </c>
+      <c r="H6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -882,10 +914,25 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>15</v>
+      </c>
+      <c r="H7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -895,8 +942,23 @@
       <c r="C8">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>40</v>
+      </c>
+      <c r="E8">
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <v>40</v>
+      </c>
+      <c r="G8">
+        <v>40</v>
+      </c>
+      <c r="H8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -906,17 +968,46 @@
       <c r="C9">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>24</v>
+      </c>
+      <c r="F9">
+        <v>24</v>
+      </c>
+      <c r="G9">
+        <v>24</v>
+      </c>
+      <c r="H9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>111</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>115</v>
       </c>
@@ -926,21 +1017,33 @@
       <c r="C11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>126</v>
       </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -950,8 +1053,23 @@
       <c r="C15" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -961,9 +1079,23 @@
       <c r="C16">
         <v>2600</v>
       </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>2600</v>
+      </c>
+      <c r="E16">
+        <v>2600</v>
+      </c>
+      <c r="F16">
+        <v>2600</v>
+      </c>
+      <c r="G16">
+        <v>2600</v>
+      </c>
+      <c r="H16">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -973,14 +1105,28 @@
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -990,8 +1136,23 @@
       <c r="C20" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" t="s">
+        <v>124</v>
+      </c>
+      <c r="H20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1001,8 +1162,23 @@
       <c r="C21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1012,8 +1188,23 @@
       <c r="C22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1023,73 +1214,203 @@
       <c r="C23">
         <v>9.81</v>
       </c>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>9.81</v>
+      </c>
+      <c r="E23">
+        <v>9.81</v>
+      </c>
+      <c r="F23">
+        <v>9.81</v>
+      </c>
+      <c r="G23">
+        <v>9.81</v>
+      </c>
+      <c r="H23">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>130</v>
-      </c>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27">
+        <v>0.5</v>
+      </c>
+      <c r="D27">
+        <v>0.5</v>
+      </c>
+      <c r="E27">
+        <v>0.5</v>
+      </c>
+      <c r="F27">
+        <v>0.5</v>
+      </c>
+      <c r="G27">
+        <v>0.5</v>
+      </c>
+      <c r="H27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <v>10</v>
+      </c>
+      <c r="H30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="C31">
+        <v>0.5</v>
+      </c>
+      <c r="D31">
+        <v>0.5</v>
+      </c>
+      <c r="E31">
+        <v>0.5</v>
+      </c>
+      <c r="F31">
+        <v>0.5</v>
+      </c>
+      <c r="G31">
+        <v>0.5</v>
+      </c>
+      <c r="H31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
         <v>134</v>
       </c>
-      <c r="B30" t="s">
-        <v>135</v>
-      </c>
-      <c r="C30" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>141</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>39</v>
+      <c r="C32">
+        <v>0.5</v>
+      </c>
+      <c r="D32">
+        <v>0.5</v>
+      </c>
+      <c r="E32">
+        <v>0.5</v>
+      </c>
+      <c r="F32">
+        <v>0.5</v>
+      </c>
+      <c r="G32">
+        <v>0.5</v>
+      </c>
+      <c r="H32">
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -1115,771 +1436,1434 @@
       <c r="AF33" s="2"/>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>42</v>
-      </c>
       <c r="B34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34">
-        <v>-300</v>
+        <v>32</v>
+      </c>
+      <c r="C34" s="2">
+        <v>100</v>
+      </c>
+      <c r="D34" s="2">
+        <v>100</v>
+      </c>
+      <c r="E34" s="2">
+        <v>100</v>
+      </c>
+      <c r="F34" s="2">
+        <v>100</v>
+      </c>
+      <c r="G34" s="2">
+        <v>100</v>
+      </c>
+      <c r="H34" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="D35">
+        <v>400</v>
+      </c>
+      <c r="E35">
+        <v>400</v>
+      </c>
+      <c r="F35">
+        <v>400</v>
+      </c>
+      <c r="G35">
+        <v>400</v>
+      </c>
+      <c r="H35">
+        <v>400</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="C36">
-        <v>10</v>
+        <v>-1</v>
+      </c>
+      <c r="D36">
+        <v>-2</v>
+      </c>
+      <c r="E36">
+        <v>-3</v>
+      </c>
+      <c r="F36">
+        <v>-4</v>
+      </c>
+      <c r="G36">
+        <v>-5</v>
+      </c>
+      <c r="H36">
+        <v>-6</v>
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>142</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
+      <c r="A37" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>143</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="H38" s="2">
+        <v>1E-4</v>
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
-      <c r="AA39" s="2"/>
-      <c r="AB39" s="2"/>
-      <c r="AC39" s="2"/>
-      <c r="AD39" s="2"/>
-      <c r="AE39" s="2"/>
-      <c r="AF39" s="2"/>
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>200</v>
+      </c>
+      <c r="D39">
+        <v>200</v>
+      </c>
+      <c r="E39">
+        <v>200</v>
+      </c>
+      <c r="F39">
+        <v>200</v>
+      </c>
+      <c r="G39">
+        <v>200</v>
+      </c>
+      <c r="H39">
+        <v>200</v>
+      </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>131</v>
+      </c>
       <c r="B40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="2">
-        <v>0.1</v>
+        <v>129</v>
+      </c>
+      <c r="C40">
+        <v>-2</v>
+      </c>
+      <c r="D40">
+        <v>-2</v>
+      </c>
+      <c r="E40">
+        <v>-2</v>
+      </c>
+      <c r="F40">
+        <v>-2</v>
+      </c>
+      <c r="G40">
+        <v>-2</v>
+      </c>
+      <c r="H40">
+        <v>-2</v>
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41">
-        <v>200</v>
+      <c r="A41" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>139</v>
-      </c>
+      <c r="A42" s="1"/>
       <c r="B42" t="s">
-        <v>137</v>
-      </c>
-      <c r="C42">
-        <v>-2</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C42" s="2">
+        <v>9.9999999999999992E-25</v>
+      </c>
+      <c r="D42" s="2">
+        <v>9.9999999999999992E-25</v>
+      </c>
+      <c r="E42" s="2">
+        <v>9.9999999999999992E-25</v>
+      </c>
+      <c r="F42" s="2">
+        <v>9.9999999999999992E-25</v>
+      </c>
+      <c r="G42" s="2">
+        <v>9.9999999999999992E-25</v>
+      </c>
+      <c r="H42" s="2">
+        <v>9.9999999999999992E-25</v>
+      </c>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="2"/>
+      <c r="AC42" s="2"/>
+      <c r="AD42" s="2"/>
+      <c r="AE42" s="2"/>
+      <c r="AF42" s="2"/>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G43" s="1"/>
+      <c r="A43" s="1"/>
+      <c r="B43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" s="5">
+        <v>5</v>
+      </c>
+      <c r="D43" s="5">
+        <v>5</v>
+      </c>
+      <c r="E43" s="5">
+        <v>5</v>
+      </c>
+      <c r="F43" s="5">
+        <v>5</v>
+      </c>
+      <c r="G43" s="5">
+        <v>5</v>
+      </c>
+      <c r="H43" s="5">
+        <v>5</v>
+      </c>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="2"/>
+      <c r="AB43" s="2"/>
+      <c r="AC43" s="2"/>
+      <c r="AD43" s="2"/>
+      <c r="AE43" s="2"/>
+      <c r="AF43" s="2"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C44" s="2">
-        <v>1E-4</v>
+      <c r="A44" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>38</v>
-      </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C45">
-        <v>200</v>
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>140</v>
+      <c r="A46" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>138</v>
-      </c>
-      <c r="C46">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
+      </c>
+      <c r="C46" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" t="s">
+        <v>56</v>
+      </c>
+      <c r="E46" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46" t="s">
+        <v>56</v>
+      </c>
+      <c r="G46" t="s">
+        <v>56</v>
+      </c>
+      <c r="H46" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-      <c r="B48" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" s="2">
-        <v>9.9999999999999992E-25</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
-      <c r="V48" s="2"/>
-      <c r="W48" s="2"/>
-      <c r="X48" s="2"/>
-      <c r="Y48" s="2"/>
-      <c r="Z48" s="2"/>
-      <c r="AA48" s="2"/>
-      <c r="AB48" s="2"/>
-      <c r="AC48" s="2"/>
-      <c r="AD48" s="2"/>
-      <c r="AE48" s="2"/>
-      <c r="AF48" s="2"/>
-    </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
+      <c r="A48" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
       <c r="B49" t="s">
-        <v>144</v>
-      </c>
-      <c r="C49" s="5">
-        <v>5</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
-      <c r="X49" s="2"/>
-      <c r="Y49" s="2"/>
-      <c r="Z49" s="2"/>
-      <c r="AA49" s="2"/>
-      <c r="AB49" s="2"/>
-      <c r="AC49" s="2"/>
-      <c r="AD49" s="2"/>
-      <c r="AE49" s="2"/>
-      <c r="AF49" s="2"/>
-    </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="C49">
+        <v>2000</v>
+      </c>
+      <c r="D49">
+        <v>2000</v>
+      </c>
+      <c r="E49">
+        <v>2000</v>
+      </c>
+      <c r="F49">
+        <v>2000</v>
+      </c>
+      <c r="G49">
+        <v>2000</v>
+      </c>
+      <c r="H49">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50">
+        <v>10</v>
+      </c>
+      <c r="D50">
+        <v>10</v>
+      </c>
+      <c r="E50">
+        <v>10</v>
+      </c>
+      <c r="F50">
+        <v>10</v>
+      </c>
+      <c r="G50">
+        <v>10</v>
+      </c>
+      <c r="H50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>22</v>
+      </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>57</v>
+        <v>8</v>
+      </c>
+      <c r="D51">
+        <v>8</v>
+      </c>
+      <c r="E51">
+        <v>8</v>
+      </c>
+      <c r="F51">
+        <v>8</v>
+      </c>
+      <c r="G51">
+        <v>8</v>
+      </c>
+      <c r="H51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>22</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="C52">
+        <v>13</v>
+      </c>
+      <c r="D52">
+        <v>13</v>
+      </c>
+      <c r="E52">
+        <v>13</v>
+      </c>
+      <c r="F52">
+        <v>13</v>
+      </c>
+      <c r="G52">
+        <v>13</v>
+      </c>
+      <c r="H52">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53:H53" si="0">-2/12*PI()</f>
+        <v>-0.52359877559829882</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>-0.52359877559829882</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>-0.52359877559829882</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>-0.52359877559829882</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>-0.52359877559829882</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="0"/>
+        <v>-0.52359877559829882</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ref="C54:H54" si="1">2/12*PI()</f>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="1"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="1"/>
+        <v>0.52359877559829882</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ref="C55:H55" si="2">11/6*PI()</f>
+        <v>5.7595865315812871</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="2"/>
+        <v>5.7595865315812871</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="2"/>
+        <v>5.7595865315812871</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="2"/>
+        <v>5.7595865315812871</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="2"/>
+        <v>5.7595865315812871</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="2"/>
+        <v>5.7595865315812871</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56">
+        <v>-1.8429999999999998E-2</v>
+      </c>
+      <c r="D56">
+        <v>-1.8429999999999998E-2</v>
+      </c>
+      <c r="E56">
+        <v>-1.8429999999999998E-2</v>
+      </c>
+      <c r="F56">
+        <v>-1.8429999999999998E-2</v>
+      </c>
+      <c r="G56">
+        <v>-1.8429999999999998E-2</v>
+      </c>
+      <c r="H56">
+        <v>-1.8429999999999998E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57">
+        <v>0.37819999999999998</v>
+      </c>
+      <c r="D57">
+        <v>0.37819999999999998</v>
+      </c>
+      <c r="E57">
+        <v>0.37819999999999998</v>
+      </c>
+      <c r="F57">
+        <v>0.37819999999999998</v>
+      </c>
+      <c r="G57">
+        <v>0.37819999999999998</v>
+      </c>
+      <c r="H57">
+        <v>0.37819999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ref="C58:H58" si="3">-2.3782</f>
+        <v>-2.3782000000000001</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="3"/>
+        <v>-2.3782000000000001</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="3"/>
+        <v>-2.3782000000000001</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="3"/>
+        <v>-2.3782000000000001</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="3"/>
+        <v>-2.3782000000000001</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="3"/>
+        <v>-2.3782000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>15</v>
       </c>
-      <c r="B55" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56" t="s">
-        <v>60</v>
-      </c>
-      <c r="C56">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>22</v>
-      </c>
-      <c r="B57" t="s">
-        <v>62</v>
-      </c>
-      <c r="C57">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>22</v>
-      </c>
-      <c r="B58" t="s">
-        <v>63</v>
-      </c>
-      <c r="C58">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>65</v>
-      </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="C59">
-        <f t="shared" ref="C59" si="0">-2/12*PI()</f>
-        <v>-0.52359877559829882</v>
-      </c>
-    </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
+      <c r="G59">
+        <v>4</v>
+      </c>
+      <c r="H59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="C60">
-        <f t="shared" ref="C60" si="1">2/12*PI()</f>
-        <v>0.52359877559829882</v>
-      </c>
-    </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>68</v>
-      </c>
-      <c r="B61" t="s">
-        <v>67</v>
-      </c>
-      <c r="C61">
-        <f t="shared" ref="C61" si="2">11/6*PI()</f>
-        <v>5.7595865315812871</v>
-      </c>
-    </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="B62" t="s">
-        <v>69</v>
-      </c>
-      <c r="C62">
-        <v>-1.8429999999999998E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>70</v>
-      </c>
-      <c r="C63">
-        <v>0.37819999999999998</v>
-      </c>
-    </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="C63" t="s">
+        <v>74</v>
+      </c>
+      <c r="D63" t="s">
+        <v>74</v>
+      </c>
+      <c r="E63" t="s">
+        <v>74</v>
+      </c>
+      <c r="F63" t="s">
+        <v>74</v>
+      </c>
+      <c r="G63" t="s">
+        <v>74</v>
+      </c>
+      <c r="H63" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>71</v>
-      </c>
-      <c r="C64">
-        <f t="shared" ref="C64" si="3">-2.3782</f>
-        <v>-2.3782000000000001</v>
+        <v>75</v>
+      </c>
+      <c r="C64" t="s">
+        <v>76</v>
+      </c>
+      <c r="D64" t="s">
+        <v>76</v>
+      </c>
+      <c r="E64" t="s">
+        <v>76</v>
+      </c>
+      <c r="F64" t="s">
+        <v>76</v>
+      </c>
+      <c r="G64" t="s">
+        <v>76</v>
+      </c>
+      <c r="H64" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>15</v>
-      </c>
       <c r="B65" t="s">
-        <v>110</v>
-      </c>
-      <c r="C65">
-        <v>4</v>
+        <v>77</v>
+      </c>
+      <c r="C65" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" t="s">
+        <v>78</v>
+      </c>
+      <c r="E65" t="s">
+        <v>78</v>
+      </c>
+      <c r="F65" t="s">
+        <v>78</v>
+      </c>
+      <c r="G65" t="s">
+        <v>78</v>
+      </c>
+      <c r="H65" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="B66" t="s">
-        <v>118</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
+        <v>79</v>
+      </c>
+      <c r="C66" t="s">
+        <v>137</v>
+      </c>
+      <c r="D66" t="s">
+        <v>137</v>
+      </c>
+      <c r="E66" t="s">
+        <v>137</v>
+      </c>
+      <c r="F66" t="s">
+        <v>137</v>
+      </c>
+      <c r="G66" t="s">
+        <v>137</v>
+      </c>
+      <c r="H66" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>122</v>
+      </c>
+      <c r="C67" t="b">
+        <v>1</v>
+      </c>
+      <c r="D67" t="b">
+        <v>1</v>
+      </c>
+      <c r="E67" t="b">
+        <v>1</v>
+      </c>
+      <c r="F67" t="b">
+        <v>1</v>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="B68" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D68" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E68" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F68" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G68" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="4"/>
+      <c r="S68" s="4"/>
+      <c r="T68" s="4"/>
+      <c r="U68" s="4"/>
+      <c r="V68" s="4"/>
+      <c r="W68" s="4"/>
+      <c r="X68" s="4"/>
+      <c r="Y68" s="4"/>
+      <c r="Z68" s="4"/>
+      <c r="AA68" s="4"/>
+      <c r="AB68" s="4"/>
+      <c r="AC68" s="4"/>
+      <c r="AD68" s="4"/>
+      <c r="AE68" s="4"/>
+      <c r="AF68" s="4"/>
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>73</v>
-      </c>
-      <c r="C69" t="s">
-        <v>74</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="4"/>
+      <c r="S69" s="4"/>
+      <c r="T69" s="4"/>
+      <c r="U69" s="4"/>
+      <c r="V69" s="4"/>
+      <c r="W69" s="4"/>
+      <c r="X69" s="4"/>
+      <c r="Y69" s="4"/>
+      <c r="Z69" s="4"/>
+      <c r="AA69" s="4"/>
+      <c r="AB69" s="4"/>
+      <c r="AC69" s="4"/>
+      <c r="AD69" s="4"/>
+      <c r="AE69" s="4"/>
+      <c r="AF69" s="4"/>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>75</v>
-      </c>
-      <c r="C70" t="s">
-        <v>76</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C70" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D70" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E70" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F70" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G70" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4"/>
+      <c r="S70" s="4"/>
+      <c r="T70" s="4"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="4"/>
+      <c r="W70" s="4"/>
+      <c r="X70" s="4"/>
+      <c r="Y70" s="4"/>
+      <c r="Z70" s="4"/>
+      <c r="AA70" s="4"/>
+      <c r="AB70" s="4"/>
+      <c r="AC70" s="4"/>
+      <c r="AD70" s="4"/>
+      <c r="AE70" s="4"/>
+      <c r="AF70" s="4"/>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>77</v>
-      </c>
-      <c r="C71" t="s">
-        <v>78</v>
+        <v>84</v>
+      </c>
+      <c r="C71" t="b">
+        <v>1</v>
+      </c>
+      <c r="D71" t="b">
+        <v>1</v>
+      </c>
+      <c r="E71" t="b">
+        <v>1</v>
+      </c>
+      <c r="F71" t="b">
+        <v>1</v>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>80</v>
-      </c>
       <c r="B72" t="s">
-        <v>79</v>
-      </c>
-      <c r="C72" t="s">
-        <v>146</v>
-      </c>
-      <c r="G72" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="C72" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D72" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E72" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F72" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G72" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4"/>
+      <c r="S72" s="4"/>
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="4"/>
+      <c r="X72" s="4"/>
+      <c r="Y72" s="4"/>
+      <c r="Z72" s="4"/>
+      <c r="AA72" s="4"/>
+      <c r="AB72" s="4"/>
+      <c r="AC72" s="4"/>
+      <c r="AD72" s="4"/>
+      <c r="AE72" s="4"/>
+      <c r="AF72" s="4"/>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="C73" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D73" t="b">
+        <v>0</v>
+      </c>
+      <c r="E73" t="b">
+        <v>0</v>
+      </c>
+      <c r="F73" t="b">
+        <v>0</v>
+      </c>
+      <c r="G73" t="b">
+        <v>0</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>121</v>
+      </c>
       <c r="B74" t="s">
-        <v>81</v>
-      </c>
-      <c r="C74" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="4"/>
-      <c r="N74" s="4"/>
-      <c r="O74" s="4"/>
-      <c r="P74" s="4"/>
-      <c r="Q74" s="4"/>
-      <c r="R74" s="4"/>
-      <c r="S74" s="4"/>
-      <c r="T74" s="4"/>
-      <c r="U74" s="4"/>
-      <c r="V74" s="4"/>
-      <c r="W74" s="4"/>
-      <c r="X74" s="4"/>
-      <c r="Y74" s="4"/>
-      <c r="Z74" s="4"/>
-      <c r="AA74" s="4"/>
-      <c r="AB74" s="4"/>
-      <c r="AC74" s="4"/>
-      <c r="AD74" s="4"/>
-      <c r="AE74" s="4"/>
-      <c r="AF74" s="4"/>
+        <v>120</v>
+      </c>
+      <c r="C74" t="b">
+        <v>0</v>
+      </c>
+      <c r="D74" t="b">
+        <v>0</v>
+      </c>
+      <c r="E74" t="b">
+        <v>0</v>
+      </c>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+      <c r="G74" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>82</v>
-      </c>
-      <c r="C75" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
-      <c r="N75" s="4"/>
-      <c r="O75" s="4"/>
-      <c r="P75" s="4"/>
-      <c r="Q75" s="4"/>
-      <c r="R75" s="4"/>
-      <c r="S75" s="4"/>
-      <c r="T75" s="4"/>
-      <c r="U75" s="4"/>
-      <c r="V75" s="4"/>
-      <c r="W75" s="4"/>
-      <c r="X75" s="4"/>
-      <c r="Y75" s="4"/>
-      <c r="Z75" s="4"/>
-      <c r="AA75" s="4"/>
-      <c r="AB75" s="4"/>
-      <c r="AC75" s="4"/>
-      <c r="AD75" s="4"/>
-      <c r="AE75" s="4"/>
-      <c r="AF75" s="4"/>
+        <v>114</v>
+      </c>
+      <c r="C75">
+        <v>2500</v>
+      </c>
+      <c r="D75">
+        <v>2500</v>
+      </c>
+      <c r="E75">
+        <v>2500</v>
+      </c>
+      <c r="F75">
+        <v>2500</v>
+      </c>
+      <c r="G75">
+        <v>2500</v>
+      </c>
+      <c r="H75">
+        <v>2500</v>
+      </c>
     </row>
     <row r="76" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>83</v>
-      </c>
-      <c r="C76" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="4"/>
-      <c r="O76" s="4"/>
-      <c r="P76" s="4"/>
-      <c r="Q76" s="4"/>
-      <c r="R76" s="4"/>
-      <c r="S76" s="4"/>
-      <c r="T76" s="4"/>
-      <c r="U76" s="4"/>
-      <c r="V76" s="4"/>
-      <c r="W76" s="4"/>
-      <c r="X76" s="4"/>
-      <c r="Y76" s="4"/>
-      <c r="Z76" s="4"/>
-      <c r="AA76" s="4"/>
-      <c r="AB76" s="4"/>
-      <c r="AC76" s="4"/>
-      <c r="AD76" s="4"/>
-      <c r="AE76" s="4"/>
-      <c r="AF76" s="4"/>
-    </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
-        <v>84</v>
-      </c>
-      <c r="C77" t="b">
+        <v>125</v>
+      </c>
+      <c r="C76" t="b">
+        <v>1</v>
+      </c>
+      <c r="D76" t="b">
+        <v>1</v>
+      </c>
+      <c r="E76" t="b">
+        <v>1</v>
+      </c>
+      <c r="F76" t="b">
+        <v>1</v>
+      </c>
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
-        <v>85</v>
-      </c>
-      <c r="C78" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4"/>
-      <c r="N78" s="4"/>
-      <c r="O78" s="4"/>
-      <c r="P78" s="4"/>
-      <c r="Q78" s="4"/>
-      <c r="R78" s="4"/>
-      <c r="S78" s="4"/>
-      <c r="T78" s="4"/>
-      <c r="U78" s="4"/>
-      <c r="V78" s="4"/>
-      <c r="W78" s="4"/>
-      <c r="X78" s="4"/>
-      <c r="Y78" s="4"/>
-      <c r="Z78" s="4"/>
-      <c r="AA78" s="4"/>
-      <c r="AB78" s="4"/>
-      <c r="AC78" s="4"/>
-      <c r="AD78" s="4"/>
-      <c r="AE78" s="4"/>
-      <c r="AF78" s="4"/>
+      <c r="A78" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="79" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>86</v>
-      </c>
-      <c r="C79" t="b">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="C79" t="s">
+        <v>89</v>
+      </c>
+      <c r="D79" t="s">
+        <v>89</v>
+      </c>
+      <c r="E79" t="s">
+        <v>89</v>
+      </c>
+      <c r="F79" t="s">
+        <v>89</v>
+      </c>
+      <c r="G79" t="s">
+        <v>89</v>
+      </c>
+      <c r="H79" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>121</v>
-      </c>
       <c r="B80" t="s">
-        <v>120</v>
-      </c>
-      <c r="C80" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="C80">
+        <v>50</v>
+      </c>
+      <c r="D80">
+        <v>50</v>
+      </c>
+      <c r="E80">
+        <v>50</v>
+      </c>
+      <c r="F80">
+        <v>50</v>
+      </c>
+      <c r="G80">
+        <v>50</v>
+      </c>
+      <c r="H80">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>101</v>
+      </c>
       <c r="B81" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="C81">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="D81">
+        <v>50</v>
+      </c>
+      <c r="E81">
+        <v>50</v>
+      </c>
+      <c r="F81">
+        <v>50</v>
+      </c>
+      <c r="G81">
+        <v>50</v>
+      </c>
+      <c r="H81">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>22</v>
+      </c>
       <c r="B82" t="s">
-        <v>125</v>
-      </c>
-      <c r="C82" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>22</v>
+      </c>
+      <c r="B83" t="s">
+        <v>93</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" t="s">
+        <v>94</v>
+      </c>
+      <c r="C84">
+        <v>600</v>
+      </c>
+      <c r="D84">
+        <v>600</v>
+      </c>
+      <c r="E84">
+        <v>600</v>
+      </c>
+      <c r="F84">
+        <v>600</v>
+      </c>
+      <c r="G84">
+        <v>600</v>
+      </c>
+      <c r="H84">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>15</v>
+      </c>
       <c r="B85" t="s">
-        <v>88</v>
-      </c>
-      <c r="C85" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="C85">
+        <v>1100</v>
+      </c>
+      <c r="D85">
+        <v>1100</v>
+      </c>
+      <c r="E85">
+        <v>1100</v>
+      </c>
+      <c r="F85">
+        <v>1100</v>
+      </c>
+      <c r="G85">
+        <v>1100</v>
+      </c>
+      <c r="H85">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>105</v>
+      </c>
       <c r="B86" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C86">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B87" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C87">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="D87">
+        <v>10</v>
+      </c>
+      <c r="E87">
+        <v>10</v>
+      </c>
+      <c r="F87">
+        <v>10</v>
+      </c>
+      <c r="G87">
+        <v>10</v>
+      </c>
+      <c r="H87">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="B88" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1E-3</v>
+      </c>
+      <c r="D88">
+        <v>1E-3</v>
+      </c>
+      <c r="E88">
+        <v>1E-3</v>
+      </c>
+      <c r="F88">
+        <v>1E-3</v>
+      </c>
+      <c r="G88">
+        <v>1E-3</v>
+      </c>
+      <c r="H88">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="B89" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3000</v>
+      </c>
+      <c r="D89">
+        <v>3000</v>
+      </c>
+      <c r="E89">
+        <v>3000</v>
+      </c>
+      <c r="F89">
+        <v>3000</v>
+      </c>
+      <c r="G89">
+        <v>3000</v>
+      </c>
+      <c r="H89">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="B90" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C90">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>15</v>
-      </c>
-      <c r="B91" t="s">
-        <v>95</v>
-      </c>
-      <c r="C91">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>105</v>
-      </c>
-      <c r="B92" t="s">
-        <v>96</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>105</v>
-      </c>
+        <v>9000</v>
+      </c>
+      <c r="D90">
+        <v>9000</v>
+      </c>
+      <c r="E90">
+        <v>9000</v>
+      </c>
+      <c r="F90">
+        <v>9000</v>
+      </c>
+      <c r="G90">
+        <v>9000</v>
+      </c>
+      <c r="H90">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
-        <v>97</v>
-      </c>
-      <c r="C93">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>104</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="C93" t="s">
+        <v>136</v>
+      </c>
+      <c r="D93" t="s">
+        <v>136</v>
+      </c>
+      <c r="E93" t="s">
+        <v>136</v>
+      </c>
+      <c r="F93" t="s">
+        <v>136</v>
+      </c>
+      <c r="G93" t="s">
+        <v>136</v>
+      </c>
+      <c r="H93" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>98</v>
-      </c>
-      <c r="C94">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>102</v>
-      </c>
-      <c r="B95" t="s">
-        <v>99</v>
-      </c>
-      <c r="C95">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>103</v>
-      </c>
-      <c r="B96" t="s">
-        <v>100</v>
-      </c>
-      <c r="C96">
-        <v>9000</v>
-      </c>
-      <c r="G96" s="1"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B99" t="s">
-        <v>107</v>
-      </c>
-      <c r="C99" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B100" t="s">
         <v>108</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C94" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I101" s="4"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G110" s="1"/>
-    </row>
-    <row r="124" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G124" s="1"/>
+      <c r="D94" t="s">
+        <v>113</v>
+      </c>
+      <c r="E94" t="s">
+        <v>113</v>
+      </c>
+      <c r="F94" t="s">
+        <v>113</v>
+      </c>
+      <c r="G94" t="s">
+        <v>113</v>
+      </c>
+      <c r="H94" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I95" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
